--- a/biology/Zoologie/Hypostomus/Hypostomus.xlsx
+++ b/biology/Zoologie/Hypostomus/Hypostomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypostomus est un genre de poissons de l'ordre des Siluriformes (cet ordre, qui compte environ le quart des espèces de poissons d'eau douce, regroupe les nombreuses espèces de poissons-chats et de silures).
-L'espèce type, Hypostomus plecostomus, décrite par Linné en 1758 vit dans le plateau des Guyanes[1] mais son nom est massivement réutilisé par les aquariophiles pour désigner sans discernement toutes sortes d'Hypostominae. L'espèce de cette sous-famille la plus fréquente en aquariophilie est probablement Pterygoplichthys pardalis[2], qui possède 11 à 13 rayons dans la nageoire dorsale, quand les Hypostomus en possèdent 8 tout au plus. Plusieurs espèces d'Hypostomus sont connues pour faire des sons de stridulation grâce à leur épines pectorales[3].
+L'espèce type, Hypostomus plecostomus, décrite par Linné en 1758 vit dans le plateau des Guyanes mais son nom est massivement réutilisé par les aquariophiles pour désigner sans discernement toutes sortes d'Hypostominae. L'espèce de cette sous-famille la plus fréquente en aquariophilie est probablement Pterygoplichthys pardalis, qui possède 11 à 13 rayons dans la nageoire dorsale, quand les Hypostomus en possèdent 8 tout au plus. Plusieurs espèces d'Hypostomus sont connues pour faire des sons de stridulation grâce à leur épines pectorales.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cochliodon Heckel in Kner, 1854
 Plecostomus Gronow in Walbaum, 1792</t>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hypostomus affinis (Steindachner, 1877)
@@ -634,7 +650,7 @@
 Hypostomus paucimaculatus Boeseman, 1968
 Hypostomus paucipunctatus Carvalho et Weber, 2005
 Hypostomus paulinus (Ihering, 1905)
-Hypostomus peckoltoides Zawadzki, Weber et Pavanelli, 2010[4]
+Hypostomus peckoltoides Zawadzki, Weber et Pavanelli, 2010
 Hypostomus phrixosoma (Fowler, 1940)
 Hypostomus piratatu Weber, 1986
 Hypostomus plecostomoides (Eigenmann, 1922)
@@ -685,7 +701,7 @@
 Hypostomus watwata Hancock, 1828
 Hypostomus winzi (Fowler, 1945)
 Hypostomus wuchereri (Günther, 1864)
-En 2017, une nouvelle espèce a été décrite (Zootaxa)[5] :
+En 2017, une nouvelle espèce a été décrite (Zootaxa) :
 Hypostomus velhochico Zawadzki, Oyakawa &amp; Britski</t>
         </is>
       </c>
